--- a/data/volumes-loa-dados/desc_setor_governo.xlsx
+++ b/data/volumes-loa-dados/desc_setor_governo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="desc_setor_governo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="desc_setor_governo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3105,6 +3105,98 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4731</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>FUNDO DE DESENVOLVIMENTO DO MINISTÉRIO PÚBLICO</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MINISTÉRIO PÚBLICO</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>PROCURADORIA GERAL DE JUSTIÇA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4751</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FUNDO ESPECIAL DA ADVOCACIA GERAL DO ESTADO </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ADVOCACIA GERAL</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ADVOCACIA GERAL DO ESTADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4741</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FUNDO ESPECIAL DE GARANTIA DE ACESSO À JUSTIÇA </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DEFENSORIA PÚBLICA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AGÊNCIA REGULADORA DE TRANSPORTES DO ESTADO DE MINAS GERAIS </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>INFRAESTRUTURA, MOBILIDADE E PARCERIAS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SECRETARIA DE ESTADO DE INFRAESTRUTURA, MOBILIDADE E PARCERIAS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
